--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H2">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I2">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J2">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.741451333333332</v>
+        <v>0.02308233333333333</v>
       </c>
       <c r="N2">
-        <v>29.224354</v>
+        <v>0.069247</v>
       </c>
       <c r="O2">
-        <v>0.3775161279488246</v>
+        <v>0.003332618012635044</v>
       </c>
       <c r="P2">
-        <v>0.3775161279488246</v>
+        <v>0.003332618012635044</v>
       </c>
       <c r="Q2">
-        <v>179.7711912567684</v>
+        <v>0.8734887134998889</v>
       </c>
       <c r="R2">
-        <v>1617.940721310916</v>
+        <v>7.861398421499</v>
       </c>
       <c r="S2">
-        <v>0.1281657951531049</v>
+        <v>0.001682360073086496</v>
       </c>
       <c r="T2">
-        <v>0.1281657951531049</v>
+        <v>0.001682360073086496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H3">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I3">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J3">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>0.649433</v>
       </c>
       <c r="O3">
-        <v>0.00838928489307887</v>
+        <v>0.03125495853682635</v>
       </c>
       <c r="P3">
-        <v>0.00838928489307887</v>
+        <v>0.03125495853682635</v>
       </c>
       <c r="Q3">
-        <v>3.994933268720223</v>
+        <v>8.192014032006778</v>
       </c>
       <c r="R3">
-        <v>35.95439941848201</v>
+        <v>73.72812628806101</v>
       </c>
       <c r="S3">
-        <v>0.00284814154809603</v>
+        <v>0.01577801420053984</v>
       </c>
       <c r="T3">
-        <v>0.002848141548096029</v>
+        <v>0.01577801420053984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H4">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I4">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J4">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1249483333333333</v>
+        <v>0.055989</v>
       </c>
       <c r="N4">
-        <v>0.374845</v>
+        <v>0.167967</v>
       </c>
       <c r="O4">
-        <v>0.004842195416226383</v>
+        <v>0.008083669324711114</v>
       </c>
       <c r="P4">
-        <v>0.004842195416226383</v>
+        <v>0.008083669324711114</v>
       </c>
       <c r="Q4">
-        <v>2.305827947014444</v>
+        <v>2.118752851971</v>
       </c>
       <c r="R4">
-        <v>20.75245152313</v>
+        <v>19.068775667739</v>
       </c>
       <c r="S4">
-        <v>0.001643913411539075</v>
+        <v>0.004080768472224348</v>
       </c>
       <c r="T4">
-        <v>0.001643913411539075</v>
+        <v>0.004080768472224348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H5">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I5">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J5">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.72118933333333</v>
+        <v>6.630637333333333</v>
       </c>
       <c r="N5">
-        <v>47.163568</v>
+        <v>19.891912</v>
       </c>
       <c r="O5">
-        <v>0.6092523917418702</v>
+        <v>0.9573287541258274</v>
       </c>
       <c r="P5">
-        <v>0.6092523917418702</v>
+        <v>0.9573287541258275</v>
       </c>
       <c r="Q5">
-        <v>290.1227792162525</v>
+        <v>250.9186047328115</v>
       </c>
       <c r="R5">
-        <v>2611.105012946272</v>
+        <v>2258.267442595304</v>
       </c>
       <c r="S5">
-        <v>0.2068396856600332</v>
+        <v>0.4832752108560679</v>
       </c>
       <c r="T5">
-        <v>0.2068396856600332</v>
+        <v>0.483275210856068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H6">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I6">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J6">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>9.741451333333332</v>
+        <v>0.02308233333333333</v>
       </c>
       <c r="N6">
-        <v>29.224354</v>
+        <v>0.069247</v>
       </c>
       <c r="O6">
-        <v>0.3775161279488246</v>
+        <v>0.003332618012635044</v>
       </c>
       <c r="P6">
-        <v>0.3775161279488246</v>
+        <v>0.003332618012635044</v>
       </c>
       <c r="Q6">
-        <v>154.7556832597422</v>
+        <v>0.3666930259155555</v>
       </c>
       <c r="R6">
-        <v>1392.80114933768</v>
+        <v>3.30023723324</v>
       </c>
       <c r="S6">
-        <v>0.1103312775578002</v>
+        <v>0.0007062595043818854</v>
       </c>
       <c r="T6">
-        <v>0.1103312775578002</v>
+        <v>0.0007062595043818856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H7">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I7">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J7">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>0.649433</v>
       </c>
       <c r="O7">
-        <v>0.00838928489307887</v>
+        <v>0.03125495853682635</v>
       </c>
       <c r="P7">
-        <v>0.00838928489307887</v>
+        <v>0.03125495853682635</v>
       </c>
       <c r="Q7">
-        <v>3.439030599151112</v>
+        <v>3.439030599151111</v>
       </c>
       <c r="R7">
-        <v>30.95127539236001</v>
+        <v>30.95127539236</v>
       </c>
       <c r="S7">
-        <v>0.002451817158326062</v>
+        <v>0.00662365486893643</v>
       </c>
       <c r="T7">
-        <v>0.002451817158326062</v>
+        <v>0.006623654868936431</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H8">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I8">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J8">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1249483333333333</v>
+        <v>0.055989</v>
       </c>
       <c r="N8">
-        <v>0.374845</v>
+        <v>0.167967</v>
       </c>
       <c r="O8">
-        <v>0.004842195416226383</v>
+        <v>0.008083669324711114</v>
       </c>
       <c r="P8">
-        <v>0.004842195416226383</v>
+        <v>0.008083669324711114</v>
       </c>
       <c r="Q8">
-        <v>1.984967540822222</v>
+        <v>0.88945842396</v>
       </c>
       <c r="R8">
-        <v>17.8647078674</v>
+        <v>8.00512581564</v>
       </c>
       <c r="S8">
-        <v>0.00141515968962577</v>
+        <v>0.001713118115911334</v>
       </c>
       <c r="T8">
-        <v>0.00141515968962577</v>
+        <v>0.001713118115911335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H9">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I9">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J9">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.72118933333333</v>
+        <v>6.630637333333333</v>
       </c>
       <c r="N9">
-        <v>47.163568</v>
+        <v>19.891912</v>
       </c>
       <c r="O9">
-        <v>0.6092523917418702</v>
+        <v>0.9573287541258274</v>
       </c>
       <c r="P9">
-        <v>0.6092523917418702</v>
+        <v>0.9573287541258275</v>
       </c>
       <c r="Q9">
-        <v>249.7516349140623</v>
+        <v>105.3363380727822</v>
       </c>
       <c r="R9">
-        <v>2247.76471422656</v>
+        <v>948.0270426550398</v>
       </c>
       <c r="S9">
-        <v>0.1780575444584399</v>
+        <v>0.2028802967684965</v>
       </c>
       <c r="T9">
-        <v>0.1780575444584399</v>
+        <v>0.2028802967684966</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H10">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I10">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J10">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>9.741451333333332</v>
+        <v>0.02308233333333333</v>
       </c>
       <c r="N10">
-        <v>29.224354</v>
+        <v>0.069247</v>
       </c>
       <c r="O10">
-        <v>0.3775161279488246</v>
+        <v>0.003332618012635044</v>
       </c>
       <c r="P10">
-        <v>0.3775161279488246</v>
+        <v>0.003332618012635044</v>
       </c>
       <c r="Q10">
-        <v>147.9819715694098</v>
+        <v>0.4331805021891111</v>
       </c>
       <c r="R10">
-        <v>1331.837744124688</v>
+        <v>3.898624519702</v>
       </c>
       <c r="S10">
-        <v>0.1055020380180269</v>
+        <v>0.0008343159677501781</v>
       </c>
       <c r="T10">
-        <v>0.1055020380180269</v>
+        <v>0.0008343159677501785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H11">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I11">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J11">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>0.649433</v>
       </c>
       <c r="O11">
-        <v>0.00838928489307887</v>
+        <v>0.03125495853682635</v>
       </c>
       <c r="P11">
-        <v>0.00838928489307887</v>
+        <v>0.03125495853682635</v>
       </c>
       <c r="Q11">
-        <v>3.288502997952889</v>
+        <v>4.062583405464222</v>
       </c>
       <c r="R11">
-        <v>29.59652698157601</v>
+        <v>36.563250649178</v>
       </c>
       <c r="S11">
-        <v>0.002344500243056229</v>
+        <v>0.007824632430053309</v>
       </c>
       <c r="T11">
-        <v>0.002344500243056229</v>
+        <v>0.00782463243005331</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H12">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I12">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J12">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1249483333333333</v>
+        <v>0.055989</v>
       </c>
       <c r="N12">
-        <v>0.374845</v>
+        <v>0.167967</v>
       </c>
       <c r="O12">
-        <v>0.004842195416226383</v>
+        <v>0.008083669324711114</v>
       </c>
       <c r="P12">
-        <v>0.004842195416226383</v>
+        <v>0.008083669324711114</v>
       </c>
       <c r="Q12">
-        <v>1.898084800537778</v>
+        <v>1.050731864358</v>
       </c>
       <c r="R12">
-        <v>17.08276320484</v>
+        <v>9.456586779222</v>
       </c>
       <c r="S12">
-        <v>0.001353217643095457</v>
+        <v>0.002023734604460759</v>
       </c>
       <c r="T12">
-        <v>0.001353217643095457</v>
+        <v>0.00202373460446076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H13">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I13">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J13">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.72118933333333</v>
+        <v>6.630637333333333</v>
       </c>
       <c r="N13">
-        <v>47.163568</v>
+        <v>19.891912</v>
       </c>
       <c r="O13">
-        <v>0.6092523917418702</v>
+        <v>0.9573287541258274</v>
       </c>
       <c r="P13">
-        <v>0.6092523917418702</v>
+        <v>0.9573287541258275</v>
       </c>
       <c r="Q13">
-        <v>238.8199163919218</v>
+        <v>124.4355485387324</v>
       </c>
       <c r="R13">
-        <v>2149.379247527296</v>
+        <v>1119.919936848592</v>
       </c>
       <c r="S13">
-        <v>0.1702639019566283</v>
+        <v>0.2396658311649801</v>
       </c>
       <c r="T13">
-        <v>0.1702639019566282</v>
+        <v>0.2396658311649802</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H14">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I14">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J14">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>9.741451333333332</v>
+        <v>0.02308233333333333</v>
       </c>
       <c r="N14">
-        <v>29.224354</v>
+        <v>0.069247</v>
       </c>
       <c r="O14">
-        <v>0.3775161279488246</v>
+        <v>0.003332618012635044</v>
       </c>
       <c r="P14">
-        <v>0.3775161279488246</v>
+        <v>0.003332618012635044</v>
       </c>
       <c r="Q14">
-        <v>47.01249741240132</v>
+        <v>0.05694761715388889</v>
       </c>
       <c r="R14">
-        <v>423.112476711612</v>
+        <v>0.512528554385</v>
       </c>
       <c r="S14">
-        <v>0.03351701721989254</v>
+        <v>0.0001096824674164842</v>
       </c>
       <c r="T14">
-        <v>0.03351701721989254</v>
+        <v>0.0001096824674164843</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H15">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I15">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J15">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>0.649433</v>
       </c>
       <c r="O15">
-        <v>0.00838928489307887</v>
+        <v>0.03125495853682635</v>
       </c>
       <c r="P15">
-        <v>0.00838928489307887</v>
+        <v>0.03125495853682635</v>
       </c>
       <c r="Q15">
-        <v>1.044726847752667</v>
+        <v>0.5340832361127777</v>
       </c>
       <c r="R15">
-        <v>9.402541629774001</v>
+        <v>4.806749125015</v>
       </c>
       <c r="S15">
-        <v>0.0007448259436005489</v>
+        <v>0.001028657037296773</v>
       </c>
       <c r="T15">
-        <v>0.0007448259436005488</v>
+        <v>0.001028657037296773</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H16">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I16">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J16">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1249483333333333</v>
+        <v>0.055989</v>
       </c>
       <c r="N16">
-        <v>0.374845</v>
+        <v>0.167967</v>
       </c>
       <c r="O16">
-        <v>0.004842195416226383</v>
+        <v>0.008083669324711114</v>
       </c>
       <c r="P16">
-        <v>0.004842195416226383</v>
+        <v>0.008083669324711114</v>
       </c>
       <c r="Q16">
-        <v>0.6030039053233333</v>
+        <v>0.138133354665</v>
       </c>
       <c r="R16">
-        <v>5.42703514791</v>
+        <v>1.243200191985</v>
       </c>
       <c r="S16">
-        <v>0.0004299046719660808</v>
+        <v>0.0002660481321146708</v>
       </c>
       <c r="T16">
-        <v>0.0004299046719660807</v>
+        <v>0.0002660481321146708</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H17">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I17">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J17">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.72118933333333</v>
+        <v>6.630637333333333</v>
       </c>
       <c r="N17">
-        <v>47.163568</v>
+        <v>19.891912</v>
       </c>
       <c r="O17">
-        <v>0.6092523917418702</v>
+        <v>0.9573287541258274</v>
       </c>
       <c r="P17">
-        <v>0.6092523917418702</v>
+        <v>0.9573287541258275</v>
       </c>
       <c r="Q17">
-        <v>75.87086847358933</v>
+        <v>16.35878794799555</v>
       </c>
       <c r="R17">
-        <v>682.8378162623039</v>
+        <v>147.22909153196</v>
       </c>
       <c r="S17">
-        <v>0.05409125966676878</v>
+        <v>0.03150741533628275</v>
       </c>
       <c r="T17">
-        <v>0.05409125966676877</v>
+        <v>0.03150741533628276</v>
       </c>
     </row>
   </sheetData>
